--- a/Worksheet in C  Users 86182 Desktop Tufts _2020 Spring ME 0094 ME 0094 Journal(AutoRecovered).xlsx
+++ b/Worksheet in C  Users 86182 Desktop Tufts _2020 Spring ME 0094 ME 0094 Journal(AutoRecovered).xlsx
@@ -8,66 +8,140 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86182\Desktop\Tufts\_2020 Spring\ME 0094\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4144DCC9-3BEB-479C-8E85-DAC71ACBFF00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8107A12-8959-445D-9CC7-5695924D5DF7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="19176" windowHeight="10056" xr2:uid="{139EAD75-9BDF-4859-8859-5E649D2688BA}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11325" xr2:uid="{ADE00172-BC9F-4DD2-B4F3-A1DF96C192C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>Mechanical</t>
+  </si>
+  <si>
+    <t>Pneumatic</t>
+  </si>
+  <si>
+    <t>PCB/Electronic</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
   <si>
     <t>Qty</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>Price Per</t>
   </si>
   <si>
-    <t>Price Total</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Item Name</t>
-  </si>
-  <si>
-    <t>Lead Screw with Nut</t>
-  </si>
-  <si>
-    <t>Stepper Motors</t>
-  </si>
-  <si>
-    <t>Shaft Adapters</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/STEPPERONLINE-Stepper-63-74oz-Connector-Extruder/dp/B07LCHHQ97/ref=sr_1_5?crid=30B8IZMDDYMOK&amp;keywords=nema+17+stepper+motor&amp;qid=1581194273&amp;sprefix=nema+17+stepp%2Caps%2C147&amp;sr=8-5</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/YOTINO-Flexible-Couplings-RepRap-3D/dp/B07DC2CV6T/ref=sr_1_6?keywords=stepper+motor+shaft+adapter&amp;qid=1581192915&amp;sr=8-6</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/ReliaBot-150mm-Thread-Starts-Printer/dp/B07C8P1DWX/ref=sr_1_4?keywords=8mm%2Blead%2Bscrew%2B150mm&amp;qid=1581194192&amp;sr=8-4&amp;th=1</t>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>https://www.pololu.com/product/1400</t>
+  </si>
+  <si>
+    <t>Mini Push Buttons</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/92125a125</t>
+  </si>
+  <si>
+    <t>M3 Flat Head 5mm</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/14495</t>
+  </si>
+  <si>
+    <t>Qwiic I2C Breakout</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/14425</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/14426</t>
+  </si>
+  <si>
+    <t>Qwiic to M-Jumper</t>
+  </si>
+  <si>
+    <t>Qwiic 50cm Cable</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/adafruit-industries-llc/4174/1528-2947-ND/10130489</t>
+  </si>
+  <si>
+    <t>Short F-Header</t>
+  </si>
+  <si>
+    <t>Straight M-Header</t>
+  </si>
+  <si>
+    <t>Right Angle M-Header</t>
+  </si>
+  <si>
+    <t>https://www.pololu.com/product/967</t>
+  </si>
+  <si>
+    <t>https://www.pololu.com/product/965</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/9650</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/533</t>
+  </si>
+  <si>
+    <t>3mm LED Green</t>
+  </si>
+  <si>
+    <t>3mm LED Red</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/14493</t>
+  </si>
+  <si>
+    <t>100 ohm resistor</t>
+  </si>
+  <si>
+    <t>330 ohm resistor</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/14490</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/92095a451</t>
+  </si>
+  <si>
+    <t>M2 Flat Head 4mm</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/57185a34</t>
+  </si>
+  <si>
+    <t>Allen Key M3 FH</t>
+  </si>
+  <si>
+    <t>Allen Key M2 FH</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/5503a35</t>
   </si>
 </sst>
 </file>
@@ -91,12 +165,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -112,8 +192,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -429,103 +510,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AB82F0-093B-40E3-B29E-BF001520C662}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB7F537-8E53-4762-9E85-554EFAA41B29}">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="140" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>45.99</v>
-      </c>
-      <c r="E2">
-        <f>C2*D2</f>
-        <v>45.99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>8.19</v>
-      </c>
-      <c r="E3">
-        <f>C3*D3</f>
-        <v>40.949999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>7.99</v>
-      </c>
-      <c r="E4">
-        <f>C4*D4</f>
-        <v>7.99</v>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{2EE63AE8-0CEB-4DAF-A88A-8A70157410A9}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{1239DCF6-05FB-4707-9D14-7E7D2EDB02B2}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{29A0DB60-7FD7-47A3-975D-07999D9D20B6}"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{D9E1792E-68FD-44A7-B23A-7C1DCB6A2043}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{3EFB118C-F716-4660-A828-364053B11208}"/>
+    <hyperlink ref="B22" r:id="rId3" xr:uid="{E3EBF6E0-EE56-4241-8B35-831306427C52}"/>
+    <hyperlink ref="B23" r:id="rId4" xr:uid="{B7A4B36E-0387-46C8-B3BC-B7F8C940E5E6}"/>
+    <hyperlink ref="B24" r:id="rId5" xr:uid="{EBE5DA9E-2893-441D-AF82-7BA9964D40D6}"/>
+    <hyperlink ref="B31" r:id="rId6" xr:uid="{CC0AA701-AC11-49B7-99DF-646AE198FA84}"/>
+    <hyperlink ref="B21" r:id="rId7" xr:uid="{2C040B07-FF9B-4595-9F87-10C7727C0D79}"/>
+    <hyperlink ref="B20" r:id="rId8" xr:uid="{5120AC55-A886-4629-8FBF-74AA063D4E4B}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{049AB05A-9D9F-4FE1-925C-F46EAEA5794F}"/>
+    <hyperlink ref="B26" r:id="rId10" xr:uid="{8F64FD21-F64D-4637-A058-9F5F690197EB}"/>
+    <hyperlink ref="B27" r:id="rId11" xr:uid="{98003347-94AE-4883-A5A0-9AA762BD75E6}"/>
+    <hyperlink ref="B28" r:id="rId12" xr:uid="{B277B539-783B-496B-857A-4C24B16FFE4F}"/>
+    <hyperlink ref="B11" r:id="rId13" xr:uid="{E63D3F3C-41C7-42C2-8337-A30483FA8FFC}"/>
+    <hyperlink ref="B10" r:id="rId14" xr:uid="{5023E92B-5FEC-4E57-A93E-4EC17CBBBAA0}"/>
+    <hyperlink ref="B12" r:id="rId15" xr:uid="{9913EA1D-5D77-47C2-A955-3C6E4E4F6903}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>